--- a/измерение ширины зоны.xlsx
+++ b/измерение ширины зоны.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26640" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>p=ad/l*Roб, Om*cm</t>
-  </si>
-  <si>
     <t>σ=1/ρ</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>1/T</t>
+  </si>
+  <si>
+    <t>p=ad/l*Roб*Iк/Iоб, Om*cm</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1378,19 +1378,19 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>-4.5971380142908274</v>
       </c>
       <c r="L2" s="1">
-        <f>B2+273</f>
+        <f t="shared" ref="L2:L8" si="0">B2+273</f>
         <v>301</v>
       </c>
       <c r="M2">
@@ -1452,27 +1452,27 @@
         <v>34</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F8" si="0">AVERAGE(D3:E3)</f>
+        <f t="shared" ref="F3:F8" si="1">AVERAGE(D3:E3)</f>
         <v>34</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="1">0.8*A12</f>
+        <f t="shared" ref="G3:G8" si="2">0.8*A12</f>
         <v>53.333333333333343</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="2">1/G3</f>
+        <f t="shared" ref="H3:H8" si="3">1/G3</f>
         <v>1.8749999999999996E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="3">LN(H3)</f>
+        <f t="shared" ref="I3:I8" si="4">LN(H3)</f>
         <v>-3.9765615265657175</v>
       </c>
       <c r="L3" s="1">
-        <f>B3+273</f>
+        <f t="shared" si="0"/>
         <v>361</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="4">1/L3</f>
+        <f t="shared" ref="M3:M8" si="5">1/L3</f>
         <v>2.7700831024930748E-3</v>
       </c>
     </row>
@@ -1494,27 +1494,27 @@
         <v>11</v>
       </c>
       <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>17.087378640776699</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>5.8522727272727275E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>-2.8383400998025619</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>17.087378640776699</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>5.8522727272727275E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>-2.8383400998025619</v>
-      </c>
-      <c r="L4" s="1">
-        <f>B4+273</f>
         <v>401</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4937655860349127E-3</v>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
         <v>9</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.9120000000000004</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.34340659340659335</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-1.0688401303344397</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>2.9120000000000004</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0.34340659340659335</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>-1.0688401303344397</v>
-      </c>
-      <c r="L5" s="1">
-        <f>B5+273</f>
         <v>486</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.05761316872428E-3</v>
       </c>
     </row>
@@ -1578,27 +1578,27 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.9076923076923078</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.52419354838709675</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-0.64589429570939982</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1.9076923076923078</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.52419354838709675</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>-0.64589429570939982</v>
-      </c>
-      <c r="L6" s="1">
-        <f>B6+273</f>
         <v>511</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9569471624266144E-3</v>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
         <v>4.3</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.2679245283018865</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.78869047619047639</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>-0.23738133397698177</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1.2679245283018865</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.78869047619047639</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>-0.23738133397698177</v>
-      </c>
-      <c r="L7" s="1">
-        <f>B7+273</f>
         <v>526</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9011406844106464E-3</v>
       </c>
     </row>
@@ -1662,27 +1662,27 @@
         <v>4.8</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>6.1875403718087453E-2</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>1.0638297872340425</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>6.1875403718087453E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <f>B8+273</f>
         <v>551</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8148820326678765E-3</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" ref="A12:A17" si="5">F3*10/C3</f>
+        <f t="shared" ref="A12:A17" si="6">F3*10/C3</f>
         <v>66.666666666666671</v>
       </c>
       <c r="B12" s="1"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.359223300970871</v>
       </c>
       <c r="B13" s="1"/>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.64</v>
       </c>
       <c r="B14" s="1"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="B15" s="1"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5849056603773581</v>
       </c>
       <c r="B16" s="1"/>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1749999999999998</v>
       </c>
       <c r="B17" s="1"/>
